--- a/comentarios_classificados.xlsx
+++ b/comentarios_classificados.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="71">
   <si>
     <t>comentario</t>
   </si>
@@ -25,7 +25,7 @@
     <t>Eu amo esse vídeo da Coca cola</t>
   </si>
   <si>
-    <t xml:space="preserve"> Positivo</t>
+    <t>Positivo</t>
   </si>
   <si>
     <t>Que delícia uma Coca-Cola geladinha</t>
@@ -52,7 +52,7 @@
     <t>@cocacola_br qual o motivo de não entregarem mais Coca-Cola Sem Açúcar Retornável aqui em São José do Rio Preto/SP. Faz mais de dois meses que sumiu dos supermercados e não tenho resposta de vocês quando vão voltar a entregar. Comprei vários vasilhames e agora não tenho como trocar.</t>
   </si>
   <si>
-    <t xml:space="preserve"> Negativo</t>
+    <t>Negativo</t>
   </si>
   <si>
     <t>Não existe propaganda e marketing mais lindo que o da @cocacola_br</t>
@@ -218,6 +218,15 @@
   </si>
   <si>
     <t>Lindo d+! Sem dizer que amo Coca-Cola! Não pode faltar!</t>
+  </si>
+  <si>
+    <t>Se não tiver COCA fico mal-humorada</t>
+  </si>
+  <si>
+    <t>Gosto muito</t>
+  </si>
+  <si>
+    <t>O resultado da ineficiência do descarte de embalagens e amontoado de plásticos que foram parar no meio ambiente!</t>
   </si>
 </sst>
 </file>
@@ -230,10 +239,17 @@
     <numFmt numFmtId="178" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="179" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -703,138 +719,141 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1370,10 +1389,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B65"/>
+  <dimension ref="A1:B68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="A72" sqref="A72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="13.8" outlineLevelCol="1"/>
@@ -1901,6 +1920,30 @@
         <v>3</v>
       </c>
     </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B66" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" t="s">
+        <v>69</v>
+      </c>
+      <c r="B67" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B68" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
